--- a/resources/TestData.XLSX
+++ b/resources/TestData.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajkamal\PycharmProjects\allure_pytest_sel_fw_copy\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019889C-CEA3-4DF4-AF25-DC7EB369FE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB2A4CD-2920-4B94-A617-B660176F501B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Menu_Navigation_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>tc_no</t>
   </si>
@@ -78,9 +77,6 @@
     <t>https://opensource-demo.orangehrmlive.com/index.php/admin/nationality</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Admin,User Management,Users</t>
   </si>
   <si>
@@ -91,9 +87,6 @@
   </si>
   <si>
     <t>Admin,Nationalities</t>
-  </si>
-  <si>
-    <t>valid credentials</t>
   </si>
   <si>
     <t>expected_msg</t>
@@ -475,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" activeCellId="1" sqref="A5 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -505,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,32 +569,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -629,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -657,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -674,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -688,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
